--- a/Merged_MPR.xlsx
+++ b/Merged_MPR.xlsx
@@ -1,77 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PM02" sheetId="1" r:id="rId1"/>
-    <sheet name="PM01" sheetId="2" r:id="rId2"/>
-    <sheet name="Breakdown Maintenance" sheetId="3" r:id="rId3"/>
+    <sheet name="PM02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PM01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Breakdown Maintenance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Jobs Hold for Shutdown" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vibration Monitoring" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Executed</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>C2C3</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>HVJ</t>
-  </si>
-  <si>
-    <t>JUNE</t>
-  </si>
-  <si>
-    <t>JULY</t>
-  </si>
-  <si>
-    <t>No. of Breakdown Jobs</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,35 +50,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,313 +424,948 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Executed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>37</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>36</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Executed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>102</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>92</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>145</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>145</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Breakdown Jobs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Short description of the job</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Casing leak in 16-PA-107 B, LP Compressor-B Third stage high vibration failure</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thermax VAM tripped due to PT malfunctioning</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DVPL EOT WHEEL REPLACEMENT, HRSG-C, Sample line de-chocked work</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Jobs hold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Short description of the job</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LGC-1 GT Bearing No. 4 Oil Leakage to be attended </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Equipment Scheduled</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Equipment Monitored (Executed)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reasons for Equipment not monitored</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Equipment With Normal Health</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Health Index</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Equipment With Critical Health</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Critical Index</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Corrective Actions Initiated</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Corrective Actions Pending</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Short Description of Issue and Action taken/Reasons for actions pending</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>195</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 M/c under standby</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>194</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9948717948717949</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DEGASSED AIR BLOWER-A Alignment corrected</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>229</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 M/c under shutdown as per operational requirement</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>228</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9956331877729258</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.004366812227074236</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.K01E GAS TURBINE STANDBY, K01E COMPRESSOR STANDBY, DVPL IA COMP RADIATOR FAN-2 MAINTENANCE, VDPL GTC-A LOC-2 MOTOR MAINTENANCE</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9701492537313433</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02985074626865672</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DVPL GTC-C FAN 2 &amp; DVPL GTC-C FAN 6 - Belt tension adjusted and alignment corrected.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2C3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>199</v>
+      </c>
+      <c r="C5" t="n">
+        <v>196</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LP compressor-B Breakdown, LEAN AMINE CHARGE PUMP-D in stopped conditon, DIESEL ENGINE -A (FWPH) under maintenance.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>196</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>274</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MACHINE UNDER SHUT DOWN - 08 No.
+1) PRU-1 GT, 2) PRU-1 COMPR, 3) PRU-2 GT, 4) PRU-2 COMPR, 5) DED F . W. PUMP - B, 6) RAIL LDNG PUMP - B, 7) NAPTHA PUMP-B (PH-2), 8) NAPTHA PUMP-A (PH-2)
+MACHINE UNDER MAINTENANCE - 05 No
+1) STP-2 SDM PUMP- C, 2) STP-2 SUBMERSIBAL PUMP-2, 3) STP-1 RECIRCULATION PUMP- 2, 4) COOLING TOWER FAN-3 AUDITORIUM BLD, 5) COND WATER PUMP-4 AUDITORIUM BLD,</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>271</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9890510948905109</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="H6" t="n">
+        <v>0.01094890510948905</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1) STP-1 SUBMERSIBAL PUMP-1 : MOTOR vibration problem found, concern dept. has been informed.
+2) HVAC COMPRESSOR-1 : Internal Bearing inspection to be done, status : Pending.
+3) CONDENSATE WATER PUMP-1 : Job completed (Problem: Shaft damage)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HVJ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.GTC M/L-A GG STANDBY
+2. GTC M/L-A COMP STANDBY
+3. VDPL GTC-A GG STANDBY
+4.VDPL GTC-A COMP STANDBY
+5. VDPL GTC-A LOC-2 MAINTENANCE
+6. VDPL IA COMP RADIATOR FAN-1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9682539682539683</v>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="H7" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>LOOSENESS OF BELT AND MISLAIGNMENT IN DVPL GAC-1 &amp; DVPL LOC-1. GREASING, ALIGNMENT AND BELT TIGHTENING ENSURED</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>